--- a/Data/Model/DataSplitting.xlsx
+++ b/Data/Model/DataSplitting.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb807af666a6dc23/TA/code/Data/Plant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb807af666a6dc23/TA/code/Data/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D40A4BD255FCDE29ED3E2B644E8DF06A8BF2E67D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3273F80B-7DAF-475B-B907-25654A6FFA0D}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_D40A4BD255FCDE29ED3E2B644E8DF06A8BF2E67D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E5F34DF-7AFC-427C-A341-D220935F95B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Variasi Pembagiaan Data</t>
   </si>
@@ -87,7 +95,13 @@
     <t>Data Splitting 5 (80 10 10)</t>
   </si>
   <si>
-    <t>Data Splitting 6 (80 15   5)</t>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Data Splitting 6 (80 15 05)</t>
+  </si>
+  <si>
+    <t>Data Splitting 7 (85 10 05)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -145,6 +159,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,36 +481,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AMJ10"/>
+  <dimension ref="A2:AMM24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="1027" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,37 +536,46 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -539,38 +585,47 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
+        <v>52.4176</v>
+      </c>
+      <c r="F5" s="1">
         <v>7.24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>4.62</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="9">
+        <v>52.5625</v>
+      </c>
+      <c r="K5" s="4">
         <v>7.25</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>4.57</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="7">
+        <v>52.4176</v>
+      </c>
+      <c r="P5" s="4">
         <v>7.24</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="4">
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -580,38 +635,47 @@
       <c r="D6" s="5">
         <v>0.65339999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
+        <v>52.707599999999999</v>
+      </c>
+      <c r="F6" s="1">
         <v>7.26</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4.63</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0.43790000000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>0.6552</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="9">
+        <v>53.144100000000002</v>
+      </c>
+      <c r="K6" s="1">
         <v>7.29</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>4.63</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>0.43590000000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>0.65349999999999997</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="7">
+        <v>52.852899999999991</v>
+      </c>
+      <c r="P6" s="1">
         <v>7.27</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>4.62</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -621,38 +685,47 @@
       <c r="D7" s="5">
         <v>0.7006</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
+        <v>47.059600000000003</v>
+      </c>
+      <c r="F7" s="1">
         <v>6.86</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>0.48909999999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>0.69799999999999995</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="9">
+        <v>46.922499999999992</v>
+      </c>
+      <c r="K7" s="1">
         <v>6.85</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>0.49049999999999999</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="5">
         <v>0.69910000000000005</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="7">
+        <v>46.922499999999992</v>
+      </c>
+      <c r="P7" s="1">
         <v>6.85</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>4.33</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -662,38 +735,47 @@
       <c r="D8" s="5">
         <v>0.69710000000000005</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
+        <v>47.748100000000001</v>
+      </c>
+      <c r="F8" s="1">
         <v>6.91</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>0.49619999999999997</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>0.69940000000000002</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="9">
+        <v>46.922499999999992</v>
+      </c>
+      <c r="K8" s="1">
         <v>6.85</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>4.41</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>0.50280000000000002</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>0.7036</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="7">
+        <v>46.785599999999995</v>
+      </c>
+      <c r="P8" s="1">
         <v>6.84</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>4.38</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -703,40 +785,49 @@
       <c r="D9" s="5">
         <v>0.69110000000000005</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
+        <v>45.832899999999995</v>
+      </c>
+      <c r="F9" s="1">
         <v>6.77</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>4.43</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>0.4899</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>0.6946</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="9">
+        <v>44.222500000000004</v>
+      </c>
+      <c r="K9" s="1">
         <v>6.65</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
         <v>0.49540000000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="N9" s="5">
         <v>0.69569999999999999</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="7">
+        <v>45.158399999999993</v>
+      </c>
+      <c r="P9" s="1">
         <v>6.72</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>4.38</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
         <v>0.52090000000000003</v>
@@ -744,40 +835,123 @@
       <c r="D10" s="5">
         <v>0.71850000000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
+        <v>44.488900000000001</v>
+      </c>
+      <c r="F10" s="1">
         <v>6.67</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>4.28</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>0.72230000000000005</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="9">
+        <v>44.756100000000004</v>
+      </c>
+      <c r="K10" s="1">
         <v>6.69</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>0.52810000000000001</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>0.72519999999999996</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="7">
+        <v>44.488900000000001</v>
+      </c>
+      <c r="P10" s="1">
         <v>6.67</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>4.2300000000000004</v>
       </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.52659999999999996</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="J11" s="6">
+        <v>43.69</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="O11" s="1">
+        <v>40.58</v>
+      </c>
+      <c r="P11" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
